--- a/hardware/record/rev_b/simple_record_bom.xlsx
+++ b/hardware/record/rev_b/simple_record_bom.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t xml:space="preserve">H11617CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ-102AH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Power Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP-102AH-ND</t>
   </si>
   <si>
     <t xml:space="preserve">MOSFET-NCHANNELSMD</t>
@@ -229,6 +241,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -250,6 +263,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,16 +315,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,23 +345,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="25.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.3163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8520408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,286 +393,309 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="C8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="C9" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="0" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="G9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="C10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="C11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="F11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="B13" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="2" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
